--- a/Rev 1.1/PowerDistro BOM_2019-2020.xlsx
+++ b/Rev 1.1/PowerDistro BOM_2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurta\Desktop\UW Seattle\19-20 Husky Robotics\REV 1\Chassis-Power-Distro-PCB-A-2019-2020\Rev 1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95492455-D7BA-4EDA-9BB9-67FA2A8A39D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A3180D-B0F8-4317-BDF9-1847C935B91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1292,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CBD03B-EE9F-4C55-837D-AF17F6E98A83}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.7"/>

--- a/Rev 1.1/PowerDistro BOM_2019-2020.xlsx
+++ b/Rev 1.1/PowerDistro BOM_2019-2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurta\Desktop\UW Seattle\19-20 Husky Robotics\REV 1\Chassis-Power-Distro-PCB-A-2019-2020\Rev 1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A3180D-B0F8-4317-BDF9-1847C935B91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E099EB4B-4C0D-45BA-80CD-15B78167F6DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="238">
   <si>
     <t>Item #</t>
   </si>
@@ -729,6 +729,24 @@
   </si>
   <si>
     <t>ICs/Other:</t>
+  </si>
+  <si>
+    <t>Missing:</t>
+  </si>
+  <si>
+    <t>14k ohm</t>
+  </si>
+  <si>
+    <t>60.8k ohm</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -1290,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CBD03B-EE9F-4C55-837D-AF17F6E98A83}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.7"/>
@@ -1307,6 +1325,7 @@
     <col min="8" max="8" width="17.0546875" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1426,6 +1445,9 @@
         <f>Table32[[#This Row],[Price per Unit]]*Table32[[#This Row],[Quantity]]</f>
         <v>1.0499999999999998</v>
       </c>
+      <c r="K4" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="12">
@@ -1823,7 +1845,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:14">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -1856,7 +1878,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="30" customFormat="1">
+    <row r="18" spans="1:14" s="30" customFormat="1">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -1869,7 +1891,7 @@
       <c r="I18" s="34"/>
       <c r="J18" s="35"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:14">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -1884,7 +1906,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" s="30" customFormat="1">
+    <row r="20" spans="1:14" s="30" customFormat="1">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -1898,7 +1920,7 @@
       <c r="I20" s="34"/>
       <c r="J20" s="41"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:14">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -1930,8 +1952,17 @@
         <f>Table32[[#This Row],[Price per Unit]]*Table32[[#This Row],[Quantity]]</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="L21" t="s">
+        <v>232</v>
+      </c>
+      <c r="M21" t="s">
+        <v>233</v>
+      </c>
+      <c r="N21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -1963,8 +1994,14 @@
         <f>Table32[[#This Row],[Price per Unit]]*Table32[[#This Row],[Quantity]]</f>
         <v>1.2000000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="M22" t="s">
+        <v>234</v>
+      </c>
+      <c r="N22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -1997,7 +2034,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:14">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -2030,7 +2067,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:14">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -2063,7 +2100,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:14">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -2096,7 +2133,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:14">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -2129,7 +2166,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:14">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -2162,7 +2199,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:14">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -2195,7 +2232,7 @@
         <v>2.0999999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:14">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -2228,7 +2265,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:14">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -2261,7 +2298,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:14">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -2294,7 +2331,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -2326,8 +2363,11 @@
         <f>Table32[[#This Row],[Price per Unit]]*Table32[[#This Row],[Quantity]]</f>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -2359,8 +2399,11 @@
         <f>Table32[[#This Row],[Price per Unit]]*Table32[[#This Row],[Quantity]]</f>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -2393,7 +2436,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -2426,7 +2469,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -2459,7 +2502,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -2492,7 +2535,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:11">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -2525,7 +2568,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -2558,7 +2601,7 @@
         <v>0.69000000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="30" customFormat="1">
+    <row r="41" spans="1:11" s="30" customFormat="1">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -2572,7 +2615,7 @@
       <c r="I41" s="34"/>
       <c r="J41" s="41"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -2587,7 +2630,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:11">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -2616,7 +2659,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -2645,7 +2688,7 @@
         <v>5.5200000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:11">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -2674,7 +2717,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="A46" s="12">
         <v>45</v>
       </c>
@@ -2703,7 +2746,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:11">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -2732,7 +2775,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:11">
       <c r="A48" s="12">
         <v>47</v>
       </c>
